--- a/data/output/LJF.xlsx
+++ b/data/output/LJF.xlsx
@@ -490,7 +490,7 @@
         <v>1191</v>
       </c>
       <c r="F2" t="n">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="G2" t="n">
         <v>1206</v>
@@ -515,7 +515,7 @@
         <v>1215</v>
       </c>
       <c r="F3" t="n">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="G3" t="n">
         <v>1230</v>
@@ -540,7 +540,7 @@
         <v>1187</v>
       </c>
       <c r="F4" t="n">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="G4" t="n">
         <v>1198</v>
@@ -565,7 +565,7 @@
         <v>1209</v>
       </c>
       <c r="F5" t="n">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="G5" t="n">
         <v>1224</v>
@@ -590,7 +590,7 @@
         <v>1210</v>
       </c>
       <c r="F6" t="n">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="G6" t="n">
         <v>1224</v>
@@ -615,7 +615,7 @@
         <v>1164</v>
       </c>
       <c r="F7" t="n">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="G7" t="n">
         <v>1176</v>
@@ -640,7 +640,7 @@
         <v>1166</v>
       </c>
       <c r="F8" t="n">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="G8" t="n">
         <v>1179</v>
@@ -665,7 +665,7 @@
         <v>1167</v>
       </c>
       <c r="F9" t="n">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="G9" t="n">
         <v>1174</v>
@@ -690,7 +690,7 @@
         <v>1114</v>
       </c>
       <c r="F10" t="n">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G10" t="n">
         <v>1132</v>
@@ -715,7 +715,7 @@
         <v>1170</v>
       </c>
       <c r="F11" t="n">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="G11" t="n">
         <v>1179</v>
@@ -740,7 +740,7 @@
         <v>1196</v>
       </c>
       <c r="F12" t="n">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="G12" t="n">
         <v>1208</v>
@@ -765,7 +765,7 @@
         <v>1197</v>
       </c>
       <c r="F13" t="n">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="G13" t="n">
         <v>1210</v>
@@ -790,7 +790,7 @@
         <v>1171</v>
       </c>
       <c r="F14" t="n">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="G14" t="n">
         <v>1183</v>
@@ -815,7 +815,7 @@
         <v>1210</v>
       </c>
       <c r="F15" t="n">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="G15" t="n">
         <v>1225</v>
@@ -840,7 +840,7 @@
         <v>1165</v>
       </c>
       <c r="F16" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="G16" t="n">
         <v>1176</v>
@@ -865,7 +865,7 @@
         <v>1226</v>
       </c>
       <c r="F17" t="n">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="G17" t="n">
         <v>1246</v>
@@ -890,7 +890,7 @@
         <v>1179</v>
       </c>
       <c r="F18" t="n">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G18" t="n">
         <v>1189</v>
@@ -915,7 +915,7 @@
         <v>1185</v>
       </c>
       <c r="F19" t="n">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="G19" t="n">
         <v>1198</v>
@@ -940,7 +940,7 @@
         <v>1138</v>
       </c>
       <c r="F20" t="n">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="G20" t="n">
         <v>1145</v>
@@ -965,7 +965,7 @@
         <v>1215</v>
       </c>
       <c r="F21" t="n">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="G21" t="n">
         <v>1231</v>
@@ -990,7 +990,7 @@
         <v>1160</v>
       </c>
       <c r="F22" t="n">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="G22" t="n">
         <v>1166</v>
@@ -1015,7 +1015,7 @@
         <v>1176</v>
       </c>
       <c r="F23" t="n">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="G23" t="n">
         <v>1196</v>
@@ -1040,7 +1040,7 @@
         <v>1222</v>
       </c>
       <c r="F24" t="n">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="G24" t="n">
         <v>1238</v>
@@ -1065,7 +1065,7 @@
         <v>1192</v>
       </c>
       <c r="F25" t="n">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="G25" t="n">
         <v>1207</v>
@@ -1090,7 +1090,7 @@
         <v>1124</v>
       </c>
       <c r="F26" t="n">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="G26" t="n">
         <v>1129</v>
@@ -1115,7 +1115,7 @@
         <v>1163</v>
       </c>
       <c r="F27" t="n">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="G27" t="n">
         <v>1174</v>
@@ -1140,7 +1140,7 @@
         <v>1165</v>
       </c>
       <c r="F28" t="n">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="G28" t="n">
         <v>1178</v>
@@ -1165,7 +1165,7 @@
         <v>1148</v>
       </c>
       <c r="F29" t="n">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G29" t="n">
         <v>1153</v>
@@ -1190,7 +1190,7 @@
         <v>1192</v>
       </c>
       <c r="F30" t="n">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="G30" t="n">
         <v>1205</v>
@@ -1215,7 +1215,7 @@
         <v>1188</v>
       </c>
       <c r="F31" t="n">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="G31" t="n">
         <v>1199</v>
@@ -1240,7 +1240,7 @@
         <v>1167</v>
       </c>
       <c r="F32" t="n">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="G32" t="n">
         <v>1184</v>
@@ -1265,7 +1265,7 @@
         <v>1121</v>
       </c>
       <c r="F33" t="n">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="G33" t="n">
         <v>1137</v>
@@ -1290,7 +1290,7 @@
         <v>1138</v>
       </c>
       <c r="F34" t="n">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="G34" t="n">
         <v>1158</v>
@@ -1315,7 +1315,7 @@
         <v>1157</v>
       </c>
       <c r="F35" t="n">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="G35" t="n">
         <v>1163</v>
@@ -1340,7 +1340,7 @@
         <v>1141</v>
       </c>
       <c r="F36" t="n">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="G36" t="n">
         <v>1150</v>
@@ -1365,7 +1365,7 @@
         <v>1157</v>
       </c>
       <c r="F37" t="n">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="G37" t="n">
         <v>1168</v>
@@ -1390,7 +1390,7 @@
         <v>1134</v>
       </c>
       <c r="F38" t="n">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="G38" t="n">
         <v>1153</v>
@@ -1415,7 +1415,7 @@
         <v>1165</v>
       </c>
       <c r="F39" t="n">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="G39" t="n">
         <v>1178</v>
@@ -1440,7 +1440,7 @@
         <v>1230</v>
       </c>
       <c r="F40" t="n">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="G40" t="n">
         <v>1249</v>
@@ -1465,7 +1465,7 @@
         <v>1178</v>
       </c>
       <c r="F41" t="n">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="G41" t="n">
         <v>1187</v>
@@ -1490,7 +1490,7 @@
         <v>1119</v>
       </c>
       <c r="F42" t="n">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="G42" t="n">
         <v>1135</v>
@@ -1515,7 +1515,7 @@
         <v>1166</v>
       </c>
       <c r="F43" t="n">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="G43" t="n">
         <v>1179</v>
@@ -1540,7 +1540,7 @@
         <v>1133</v>
       </c>
       <c r="F44" t="n">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="G44" t="n">
         <v>1151</v>
@@ -1565,7 +1565,7 @@
         <v>1231</v>
       </c>
       <c r="F45" t="n">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="G45" t="n">
         <v>1248</v>
@@ -1590,7 +1590,7 @@
         <v>1215</v>
       </c>
       <c r="F46" t="n">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="G46" t="n">
         <v>1231</v>
@@ -1615,7 +1615,7 @@
         <v>1142</v>
       </c>
       <c r="F47" t="n">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="G47" t="n">
         <v>1149</v>
@@ -1640,7 +1640,7 @@
         <v>1162</v>
       </c>
       <c r="F48" t="n">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="G48" t="n">
         <v>1169</v>
@@ -1665,7 +1665,7 @@
         <v>1170</v>
       </c>
       <c r="F49" t="n">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="G49" t="n">
         <v>1178</v>
@@ -1690,7 +1690,7 @@
         <v>1150</v>
       </c>
       <c r="F50" t="n">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="G50" t="n">
         <v>1156</v>
@@ -1715,7 +1715,7 @@
         <v>1183</v>
       </c>
       <c r="F51" t="n">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="G51" t="n">
         <v>1195</v>
@@ -1740,7 +1740,7 @@
         <v>1217</v>
       </c>
       <c r="F52" t="n">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="G52" t="n">
         <v>1232</v>
@@ -1765,7 +1765,7 @@
         <v>1123</v>
       </c>
       <c r="F53" t="n">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="G53" t="n">
         <v>1143</v>
@@ -1790,7 +1790,7 @@
         <v>1164</v>
       </c>
       <c r="F54" t="n">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="G54" t="n">
         <v>1184</v>
@@ -1815,7 +1815,7 @@
         <v>1172</v>
       </c>
       <c r="F55" t="n">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="G55" t="n">
         <v>1181</v>
@@ -1840,7 +1840,7 @@
         <v>1190</v>
       </c>
       <c r="F56" t="n">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="G56" t="n">
         <v>1201</v>
@@ -1865,7 +1865,7 @@
         <v>1158</v>
       </c>
       <c r="F57" t="n">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="G57" t="n">
         <v>1168</v>
@@ -1890,7 +1890,7 @@
         <v>1151</v>
       </c>
       <c r="F58" t="n">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="G58" t="n">
         <v>1157</v>
@@ -1915,7 +1915,7 @@
         <v>1151</v>
       </c>
       <c r="F59" t="n">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="G59" t="n">
         <v>1162</v>
@@ -1940,7 +1940,7 @@
         <v>1198</v>
       </c>
       <c r="F60" t="n">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="G60" t="n">
         <v>1212</v>
@@ -1965,7 +1965,7 @@
         <v>1215</v>
       </c>
       <c r="F61" t="n">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="G61" t="n">
         <v>1233</v>
@@ -1990,7 +1990,7 @@
         <v>1226</v>
       </c>
       <c r="F62" t="n">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="G62" t="n">
         <v>1245</v>
@@ -2015,7 +2015,7 @@
         <v>1167</v>
       </c>
       <c r="F63" t="n">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="G63" t="n">
         <v>1179</v>
@@ -2040,7 +2040,7 @@
         <v>1211</v>
       </c>
       <c r="F64" t="n">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="G64" t="n">
         <v>1225</v>
@@ -2065,7 +2065,7 @@
         <v>1130</v>
       </c>
       <c r="F65" t="n">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="G65" t="n">
         <v>1137</v>
@@ -2090,7 +2090,7 @@
         <v>1132</v>
       </c>
       <c r="F66" t="n">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="G66" t="n">
         <v>1139</v>
@@ -2115,7 +2115,7 @@
         <v>1216</v>
       </c>
       <c r="F67" t="n">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="G67" t="n">
         <v>1230</v>
@@ -2140,7 +2140,7 @@
         <v>1123</v>
       </c>
       <c r="F68" t="n">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="G68" t="n">
         <v>1129</v>
@@ -2165,7 +2165,7 @@
         <v>1163</v>
       </c>
       <c r="F69" t="n">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="G69" t="n">
         <v>1173</v>
@@ -2190,7 +2190,7 @@
         <v>1165</v>
       </c>
       <c r="F70" t="n">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="G70" t="n">
         <v>1176</v>
@@ -2215,7 +2215,7 @@
         <v>1148</v>
       </c>
       <c r="F71" t="n">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="G71" t="n">
         <v>1154</v>
@@ -2240,7 +2240,7 @@
         <v>1173</v>
       </c>
       <c r="F72" t="n">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="G72" t="n">
         <v>1182</v>
@@ -2265,7 +2265,7 @@
         <v>1163</v>
       </c>
       <c r="F73" t="n">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="G73" t="n">
         <v>1170</v>
@@ -2290,7 +2290,7 @@
         <v>1181</v>
       </c>
       <c r="F74" t="n">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="G74" t="n">
         <v>1200</v>
@@ -2315,7 +2315,7 @@
         <v>1185</v>
       </c>
       <c r="F75" t="n">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="G75" t="n">
         <v>1198</v>
@@ -2340,7 +2340,7 @@
         <v>1221</v>
       </c>
       <c r="F76" t="n">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="G76" t="n">
         <v>1240</v>
@@ -2365,7 +2365,7 @@
         <v>1210</v>
       </c>
       <c r="F77" t="n">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="G77" t="n">
         <v>1225</v>
@@ -2390,7 +2390,7 @@
         <v>1160</v>
       </c>
       <c r="F78" t="n">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="G78" t="n">
         <v>1169</v>
@@ -2415,7 +2415,7 @@
         <v>1172</v>
       </c>
       <c r="F79" t="n">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="G79" t="n">
         <v>1185</v>
@@ -2440,7 +2440,7 @@
         <v>1155</v>
       </c>
       <c r="F80" t="n">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="G80" t="n">
         <v>1165</v>
@@ -2465,7 +2465,7 @@
         <v>1212</v>
       </c>
       <c r="F81" t="n">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="G81" t="n">
         <v>1227</v>
@@ -2490,7 +2490,7 @@
         <v>1160</v>
       </c>
       <c r="F82" t="n">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="G82" t="n">
         <v>1178</v>
@@ -2515,7 +2515,7 @@
         <v>1210</v>
       </c>
       <c r="F83" t="n">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="G83" t="n">
         <v>1224</v>
@@ -2540,7 +2540,7 @@
         <v>1183</v>
       </c>
       <c r="F84" t="n">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="G84" t="n">
         <v>1198</v>
@@ -2565,7 +2565,7 @@
         <v>1174</v>
       </c>
       <c r="F85" t="n">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="G85" t="n">
         <v>1183</v>
@@ -2590,7 +2590,7 @@
         <v>1150</v>
       </c>
       <c r="F86" t="n">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="G86" t="n">
         <v>1155</v>
@@ -2615,7 +2615,7 @@
         <v>1141</v>
       </c>
       <c r="F87" t="n">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="G87" t="n">
         <v>1146</v>
@@ -2640,7 +2640,7 @@
         <v>1188</v>
       </c>
       <c r="F88" t="n">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="G88" t="n">
         <v>1199</v>
@@ -2665,7 +2665,7 @@
         <v>1154</v>
       </c>
       <c r="F89" t="n">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="G89" t="n">
         <v>1159</v>
@@ -2690,7 +2690,7 @@
         <v>1135</v>
       </c>
       <c r="F90" t="n">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="G90" t="n">
         <v>1154</v>
@@ -2715,7 +2715,7 @@
         <v>1233</v>
       </c>
       <c r="F91" t="n">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="G91" t="n">
         <v>1250</v>
@@ -2740,7 +2740,7 @@
         <v>1123</v>
       </c>
       <c r="F92" t="n">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="G92" t="n">
         <v>1142</v>
@@ -2765,7 +2765,7 @@
         <v>1179</v>
       </c>
       <c r="F93" t="n">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="G93" t="n">
         <v>1189</v>
@@ -2790,7 +2790,7 @@
         <v>1117</v>
       </c>
       <c r="F94" t="n">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="G94" t="n">
         <v>1134</v>
@@ -2815,7 +2815,7 @@
         <v>1152</v>
       </c>
       <c r="F95" t="n">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="G95" t="n">
         <v>1160</v>
@@ -2840,7 +2840,7 @@
         <v>1174</v>
       </c>
       <c r="F96" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="G96" t="n">
         <v>1188</v>
@@ -2865,7 +2865,7 @@
         <v>1226</v>
       </c>
       <c r="F97" t="n">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="G97" t="n">
         <v>1243</v>
@@ -2890,7 +2890,7 @@
         <v>1121</v>
       </c>
       <c r="F98" t="n">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="G98" t="n">
         <v>1138</v>
@@ -2915,7 +2915,7 @@
         <v>1217</v>
       </c>
       <c r="F99" t="n">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="G99" t="n">
         <v>1231</v>
@@ -2940,7 +2940,7 @@
         <v>1172</v>
       </c>
       <c r="F100" t="n">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="G100" t="n">
         <v>1182</v>
@@ -2965,7 +2965,7 @@
         <v>1174</v>
       </c>
       <c r="F101" t="n">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="G101" t="n">
         <v>1187</v>
